--- a/input_files/Pb208_RMF.xlsx
+++ b/input_files/Pb208_RMF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dima/Projects/Light-Front Mean Field Theory/Runge-Kutta Method/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC5DEB4-8870-2447-9B39-786A5C18D5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2C4862-6EB5-0B4F-8B74-9C2BC11CAB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{178560A9-F361-274A-AB9D-3DA0C106A5E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" activeTab="1" xr2:uid="{178560A9-F361-274A-AB9D-3DA0C106A5E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
     <t>COULOMB STRENGTH [MEV]</t>
   </si>
   <si>
-    <t>COULOMBCOUPLING</t>
+    <t>COULOMB COUPLING</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9A6784-E59C-C844-8BF2-222A93D550FE}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E9AEF-BC4E-8547-A3F8-1FD6EEDF1358}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input_files/Pb208_RMF.xlsx
+++ b/input_files/Pb208_RMF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dima/Projects/Light-Front Mean Field Theory/Runge-Kutta Method/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2C4862-6EB5-0B4F-8B74-9C2BC11CAB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC8BF7-B87B-8143-8B22-D13E483C0A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" activeTab="1" xr2:uid="{178560A9-F361-274A-AB9D-3DA0C106A5E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{178560A9-F361-274A-AB9D-3DA0C106A5E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>R_MIN [FM]</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>2D3/2</t>
-  </si>
-  <si>
-    <t>1H5/2</t>
   </si>
   <si>
     <t>3S1/2</t>
@@ -551,7 +548,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,11 +602,11 @@
         <v>0.04</v>
       </c>
       <c r="F2">
-        <f>12</f>
-        <v>12</v>
+        <f>15</f>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -621,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E9AEF-BC4E-8547-A3F8-1FD6EEDF1358}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,16 +644,16 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
       </c>
       <c r="I1" t="s">
         <v>18</v>
@@ -684,8 +681,8 @@
         <v>-12</v>
       </c>
       <c r="F2">
-        <f>SQRT(65.226)</f>
-        <v>8.0762615113677434</v>
+        <f>SQRT(65.226196)</f>
+        <v>8.0762736456858626</v>
       </c>
       <c r="G2">
         <v>25.9</v>
@@ -710,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0DFB11-EF41-C546-9FD3-E7A3D7C62348}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,14 +746,14 @@
         <v>-1</v>
       </c>
       <c r="C2">
-        <f>850</f>
-        <v>850</v>
+        <f>860</f>
+        <v>860</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F2">
         <f>1*0.5</f>
@@ -779,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F17" si="0">1*0.5</f>
@@ -802,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -823,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -844,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -865,7 +862,7 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -886,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -907,7 +904,7 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -928,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -949,7 +946,7 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -970,7 +967,7 @@
         <v>29</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -991,7 +988,7 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -1012,7 +1009,7 @@
         <v>31</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -1033,7 +1030,7 @@
         <v>32</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -1051,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -1066,16 +1063,16 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -1091,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF253CE-956B-B040-8027-78DFB140BDDF}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,14 +1124,14 @@
         <v>-1</v>
       </c>
       <c r="C2">
-        <f>850</f>
-        <v>850</v>
+        <f>860</f>
+        <v>860</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F2">
         <f>-1*0.5</f>
@@ -1157,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F23" si="0">-1*0.5</f>
@@ -1180,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -1201,7 +1198,7 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -1222,7 +1219,7 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -1243,7 +1240,7 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -1264,7 +1261,7 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -1285,7 +1282,7 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -1306,7 +1303,7 @@
         <v>27</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -1327,7 +1324,7 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -1348,7 +1345,7 @@
         <v>29</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -1369,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -1387,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -1411,7 +1408,7 @@
         <v>31</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -1432,7 +1429,7 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -1450,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -1471,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -1492,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -1513,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -1534,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -1555,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -1576,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>

--- a/input_files/Pb208_RMF.xlsx
+++ b/input_files/Pb208_RMF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dima/Projects/Light-Front Mean Field Theory/Runge-Kutta Method/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC8BF7-B87B-8143-8B22-D13E483C0A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D851E5E-8A10-EF4C-9771-3C099FA42055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{178560A9-F361-274A-AB9D-3DA0C106A5E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" activeTab="2" xr2:uid="{178560A9-F361-274A-AB9D-3DA0C106A5E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>200</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -619,7 +619,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,7 +708,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,14 +746,14 @@
         <v>-1</v>
       </c>
       <c r="C2">
-        <f>860</f>
-        <v>860</v>
+        <f>878</f>
+        <v>878</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <f>1*0.5</f>
@@ -776,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F17" si="0">1*0.5</f>
@@ -799,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>4.45</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -820,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>4.45</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -829,19 +829,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -850,19 +850,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>4.45</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -883,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>4.45</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -892,19 +892,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -913,19 +913,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>4.45</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -946,7 +946,7 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <v>4.45</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -967,7 +967,7 @@
         <v>29</v>
       </c>
       <c r="E12">
-        <v>4.45</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -988,7 +988,7 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -1009,7 +1009,7 @@
         <v>31</v>
       </c>
       <c r="E14">
-        <v>4.45</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -1018,19 +1018,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>4.45</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -1039,19 +1039,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>4.45</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -1072,7 +1072,7 @@
         <v>33</v>
       </c>
       <c r="E17">
-        <v>4.45</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1124,14 +1124,14 @@
         <v>-1</v>
       </c>
       <c r="C2">
-        <f>860</f>
-        <v>860</v>
+        <f>868</f>
+        <v>868</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <f>-1*0.5</f>
@@ -1154,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F23" si="0">-1*0.5</f>
@@ -1177,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>4.45</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -1198,7 +1198,7 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>4.45</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -1207,19 +1207,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -1228,19 +1228,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>4.45</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -1261,7 +1261,7 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>4.45</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -1270,19 +1270,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -1291,19 +1291,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>4.45</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -1324,7 +1324,7 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <v>4.45</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -1345,7 +1345,7 @@
         <v>29</v>
       </c>
       <c r="E12">
-        <v>4.45</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -1366,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -1375,19 +1375,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>4.45</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -1396,19 +1396,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>4.45</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -1429,7 +1429,7 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>4.45</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -1438,19 +1438,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>4.45</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -1459,19 +1459,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -1492,7 +1492,7 @@
         <v>34</v>
       </c>
       <c r="E19">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -1534,7 +1534,7 @@
         <v>36</v>
       </c>
       <c r="E21">
-        <v>4.45</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -1543,19 +1543,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22">
-        <v>4.45</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -1564,19 +1564,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23">
-        <v>4.45</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
